--- a/docs/Extension-CareConnect-ConditionRelationship-1.xlsx
+++ b/docs/Extension-CareConnect-ConditionRelationship-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$26</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="97">
   <si>
     <t>Path</t>
   </si>
@@ -218,7 +218,13 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
-    <t>Extension.extension.url</t>
+    <t>Extension.extension.extension.id</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension.extension.url</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -240,16 +246,42 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension.valueCode</t>
-  </si>
-  <si>
-    <t>valueCode</t>
+    <t>Extension.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension.url</t>
+  </si>
+  <si>
+    <t>Extension.extension.value[x]</t>
   </si>
   <si>
     <t xml:space="preserve">code
 </t>
   </si>
   <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>valueCode</t>
+  </si>
+  <si>
     <t>Condition relationship type</t>
   </si>
   <si>
@@ -265,13 +297,11 @@
     <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ConditionRelationship-1</t>
   </si>
   <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
     <t>target</t>
   </si>
   <si>
-    <t>Extension.extension.valueReference</t>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>valueReference</t>
@@ -288,16 +318,6 @@
   </si>
   <si>
     <t>https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-CareConnect-ConditionRelationship-1</t>
-  </si>
-  <si>
-    <t>base64Binary
-booleancodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingMeta</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
 </sst>
 </file>
@@ -446,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ16"/>
+  <dimension ref="A1:AJ26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -455,7 +475,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="33.45703125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.546875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.9375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1217,7 +1237,7 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>45</v>
@@ -1232,24 +1252,22 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="R8" t="s" s="2">
         <v>37</v>
@@ -1291,10 +1309,10 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>45</v>
@@ -1306,25 +1324,23 @@
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1336,15 +1352,17 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>64</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1369,37 +1387,37 @@
         <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="AC9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
@@ -1408,16 +1426,14 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>37</v>
       </c>
@@ -1438,15 +1454,17 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>71</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>37</v>
@@ -1495,13 +1513,13 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>37</v>
@@ -1510,12 +1528,12 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1538,13 +1556,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1595,7 +1613,7 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
@@ -1610,23 +1628,23 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -1638,16 +1656,16 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -1655,7 +1673,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1685,25 +1703,25 @@
         <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -1712,12 +1730,12 @@
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1725,7 +1743,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>45</v>
@@ -1740,24 +1758,22 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>37</v>
@@ -1787,22 +1803,20 @@
         <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AB13" s="2"/>
       <c r="AC13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>45</v>
@@ -1814,15 +1828,15 @@
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>37</v>
@@ -1844,7 +1858,7 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>85</v>
@@ -1877,13 +1891,13 @@
         <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>37</v>
@@ -1901,7 +1915,7 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>38</v>
@@ -1916,14 +1930,16 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>37</v>
       </c>
@@ -1944,24 +1960,22 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>69</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="R15" t="s" s="2">
         <v>37</v>
@@ -2003,13 +2017,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2018,12 +2032,12 @@
         <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2034,7 +2048,7 @@
         <v>38</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>37</v>
@@ -2046,13 +2060,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2103,26 +2117,1036 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" hidden="true">
+      <c r="A17" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" hidden="true">
+      <c r="A18" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
+      <c r="A23" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
+      <c r="B23" s="2"/>
+      <c r="C23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P23" s="2"/>
+      <c r="Q23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB23" s="2"/>
+      <c r="AC23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" hidden="true">
+      <c r="A24" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P24" s="2"/>
+      <c r="Q24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" hidden="true">
+      <c r="A25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L25" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>71</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P25" s="2"/>
+      <c r="Q25" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="R25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="P26" s="2"/>
+      <c r="Q26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ16">
+  <autoFilter ref="A1:AJ26">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2132,7 +3156,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI15">
+  <conditionalFormatting sqref="A2:AI25">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
